--- a/data/input/employee_absence_data_1.xlsx
+++ b/data/input/employee_absence_data_1.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37785</v>
+        <v>12692</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Garcia</t>
+          <t>Nicolas Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45086</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>3062.94</v>
+        <v>4867.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72316</v>
+        <v>31024</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stella Macedo</t>
+          <t>Maria Júlia Macedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,55 +507,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>12075.11</v>
+        <v>5158.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10165</v>
+        <v>28693</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Mirella Souza</t>
+          <t>Erick Marques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>4319.32</v>
+        <v>3668.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49793</v>
+        <v>12015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caleb Aparecida</t>
+          <t>Bianca Casa Grande</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,147 +565,147 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>11586.97</v>
+        <v>8695.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52162</v>
+        <v>82415</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Cecília Ramos</t>
+          <t>Mariane Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45080</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>8835.25</v>
+        <v>7443.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61254</v>
+        <v>1461</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rafaela Marques</t>
+          <t>Maria Clara Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45080</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>2814.64</v>
+        <v>8983.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72935</v>
+        <v>68126</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme Barros</t>
+          <t>Natália Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4145.58</v>
+        <v>9026.459999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35430</v>
+        <v>17216</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vicente Sampaio</t>
+          <t>Davi Miguel Borges</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>3749.69</v>
+        <v>2161.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94553</v>
+        <v>20948</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kevin Nunes</t>
+          <t>Luiz Henrique da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>4472.52</v>
+        <v>5059.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89870</v>
+        <v>5527</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabela Viana</t>
+          <t>Gustavo Henrique da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>4796.12</v>
+        <v>7791.76</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_1.xlsx
+++ b/data/input/employee_absence_data_1.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12692</v>
+        <v>59392</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas Cardoso</t>
+          <t>João Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>4867.85</v>
+        <v>7739.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31024</v>
+        <v>76141</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Júlia Macedo</t>
+          <t>Laura Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>5158.75</v>
+        <v>9121.440000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28693</v>
+        <v>57370</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erick Marques</t>
+          <t>Nina Correia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45091</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>3668.5</v>
+        <v>8991.209999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12015</v>
+        <v>24787</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bianca Casa Grande</t>
+          <t>Cauã Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,187 +569,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>8695.07</v>
+        <v>7812.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82415</v>
+        <v>58424</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariane Freitas</t>
+          <t>Dra. Laura Albuquerque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45102</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>7443.73</v>
+        <v>7949.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1461</v>
+        <v>99744</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Clara Pereira</t>
+          <t>Helena Aparecida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45088</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>8983.83</v>
+        <v>2861.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68126</v>
+        <v>96217</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Natália Alves</t>
+          <t>Rael Mendonça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>9026.459999999999</v>
+        <v>3876.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17216</v>
+        <v>43150</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Davi Miguel Borges</t>
+          <t>Arthur Gabriel Guerra</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>2161.78</v>
+        <v>2892.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20948</v>
+        <v>3783</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luiz Henrique da Rosa</t>
+          <t>Yago da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>5059.31</v>
+        <v>4271.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5527</v>
+        <v>58145</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gustavo Henrique da Mata</t>
+          <t>Ana Julia Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45099</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>7791.76</v>
+        <v>8895.389999999999</v>
       </c>
     </row>
   </sheetData>
